--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rspo1-Lrp6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rspo1-Lrp6.xlsx
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Rspo1</t>
+  </si>
+  <si>
+    <t>Lrp6</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Rspo1</t>
-  </si>
-  <si>
-    <t>Lrp6</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -534,16 +534,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3702603333333334</v>
+        <v>0.7878926666666667</v>
       </c>
       <c r="H2">
-        <v>1.110781</v>
+        <v>2.363678</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.123436</v>
+        <v>12.86269466666666</v>
       </c>
       <c r="N2">
-        <v>39.370308</v>
+        <v>38.58808399999999</v>
       </c>
       <c r="O2">
-        <v>0.1528215756229904</v>
+        <v>0.1337831063410017</v>
       </c>
       <c r="P2">
-        <v>0.1528215756229904</v>
+        <v>0.1337831063410017</v>
       </c>
       <c r="Q2">
-        <v>4.859087787838667</v>
+        <v>10.13442280143911</v>
       </c>
       <c r="R2">
-        <v>43.731790090548</v>
+        <v>91.20980521295199</v>
       </c>
       <c r="S2">
-        <v>0.1528215756229904</v>
+        <v>0.1337831063410017</v>
       </c>
       <c r="T2">
-        <v>0.1528215756229904</v>
+        <v>0.1337831063410017</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3702603333333334</v>
+        <v>0.7878926666666667</v>
       </c>
       <c r="H3">
-        <v>1.110781</v>
+        <v>2.363678</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>103.640041</v>
       </c>
       <c r="O3">
-        <v>0.4022938901888023</v>
+        <v>0.3593152390330854</v>
       </c>
       <c r="P3">
-        <v>0.4022938901888023</v>
+        <v>0.3593152390330854</v>
       </c>
       <c r="Q3">
-        <v>12.79126537578011</v>
+        <v>27.21907609231089</v>
       </c>
       <c r="R3">
-        <v>115.121388382021</v>
+        <v>244.971684830798</v>
       </c>
       <c r="S3">
-        <v>0.4022938901888023</v>
+        <v>0.3593152390330854</v>
       </c>
       <c r="T3">
-        <v>0.4022938901888023</v>
+        <v>0.3593152390330854</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,19 +655,19 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3702603333333334</v>
+        <v>0.7878926666666667</v>
       </c>
       <c r="H4">
-        <v>1.110781</v>
+        <v>2.363678</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.12064766666666</v>
+        <v>18.65324433333334</v>
       </c>
       <c r="N4">
-        <v>45.361943</v>
+        <v>55.95973300000001</v>
       </c>
       <c r="O4">
-        <v>0.1760789781624335</v>
+        <v>0.1940098117012772</v>
       </c>
       <c r="P4">
-        <v>0.1760789781624335</v>
+        <v>0.1940098117012772</v>
       </c>
       <c r="Q4">
-        <v>5.598576045275888</v>
+        <v>14.69675441977489</v>
       </c>
       <c r="R4">
-        <v>50.387184407483</v>
+        <v>132.270789777974</v>
       </c>
       <c r="S4">
-        <v>0.1760789781624335</v>
+        <v>0.1940098117012772</v>
       </c>
       <c r="T4">
-        <v>0.1760789781624335</v>
+        <v>0.1940098117012772</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,19 +717,19 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3702603333333334</v>
+        <v>0.7878926666666667</v>
       </c>
       <c r="H5">
-        <v>1.110781</v>
+        <v>2.363678</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.902825333333333</v>
+        <v>7.643308666666666</v>
       </c>
       <c r="N5">
-        <v>20.708476</v>
+        <v>22.929926</v>
       </c>
       <c r="O5">
-        <v>0.08038296096314212</v>
+        <v>0.07949699519803316</v>
       </c>
       <c r="P5">
-        <v>0.08038296096314212</v>
+        <v>0.07949699519803316</v>
       </c>
       <c r="Q5">
-        <v>2.555842408861778</v>
+        <v>6.022106847536445</v>
       </c>
       <c r="R5">
-        <v>23.002581679756</v>
+        <v>54.198961627828</v>
       </c>
       <c r="S5">
-        <v>0.08038296096314212</v>
+        <v>0.07949699519803316</v>
       </c>
       <c r="T5">
-        <v>0.08038296096314212</v>
+        <v>0.07949699519803316</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,19 +779,19 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3702603333333334</v>
+        <v>0.7878926666666667</v>
       </c>
       <c r="H6">
-        <v>1.110781</v>
+        <v>2.363678</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.18064633333333</v>
+        <v>22.43995333333334</v>
       </c>
       <c r="N6">
-        <v>48.541939</v>
+        <v>67.31986000000001</v>
       </c>
       <c r="O6">
-        <v>0.1884225950626316</v>
+        <v>0.2333948477266026</v>
       </c>
       <c r="P6">
-        <v>0.1884225950626316</v>
+        <v>0.2333948477266026</v>
       </c>
       <c r="Q6">
-        <v>5.991051504928778</v>
+        <v>17.68027467167556</v>
       </c>
       <c r="R6">
-        <v>53.919463544359</v>
+        <v>159.12247204508</v>
       </c>
       <c r="S6">
-        <v>0.1884225950626316</v>
+        <v>0.2333948477266026</v>
       </c>
       <c r="T6">
-        <v>0.1884225950626316</v>
+        <v>0.2333948477266026</v>
       </c>
     </row>
   </sheetData>
